--- a/data/pupils.xlsx
+++ b/data/pupils.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srram\radboud-premaster\Academic_Writing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\academic-writing-g3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A28B16-600D-4FC6-B428-FAA3CABC4F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716291EC-41E3-4ABD-993C-8904A82532FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="70630ned_TypedDataSet_12112020_" sheetId="1" r:id="rId1"/>
@@ -653,16 +653,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1020,63 +1021,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="33" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="41.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36.59765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.86328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.73046875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="39" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="35.73046875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="3" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="M1" s="2"/>
@@ -1096,41 +1112,32 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="AB1" s="2" t="s">
         <v>47</v>
       </c>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4" t="s">
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
       <c r="F2" t="s">
         <v>5</v>
       </c>
@@ -1191,12 +1198,6 @@
       <c r="Y2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>26</v>
-      </c>
       <c r="AB2" t="s">
         <v>27</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2376,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>23</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>25</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>26</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>27</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>28</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>29</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>30</v>
       </c>
@@ -4179,7 +4180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>31</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>32</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>33</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>34</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>35</v>
       </c>
@@ -4537,7 +4538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>36</v>
       </c>
@@ -4644,7 +4645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>37</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>38</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>39</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>40</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>41</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>42</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>43</v>
       </c>
@@ -5222,7 +5223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>44</v>
       </c>
@@ -5332,7 +5333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>45</v>
       </c>
@@ -5433,7 +5434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>46</v>
       </c>
@@ -5549,7 +5550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>47</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>48</v>
       </c>
@@ -5679,7 +5680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>49</v>
       </c>
@@ -5690,7 +5691,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>50</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>51</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>52</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>53</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>54</v>
       </c>
@@ -6207,7 +6208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>55</v>
       </c>
@@ -6326,7 +6327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>56</v>
       </c>
@@ -6445,7 +6446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>57</v>
       </c>
@@ -6552,7 +6553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>58</v>
       </c>
@@ -6671,7 +6672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>59</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>60</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>61</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>62</v>
       </c>
@@ -7135,7 +7136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>63</v>
       </c>
@@ -7242,7 +7243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>64</v>
       </c>
@@ -7361,7 +7362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>65</v>
       </c>
@@ -7480,7 +7481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>66</v>
       </c>
@@ -7584,7 +7585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>67</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>68</v>
       </c>
